--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,51 +43,51 @@
     <t>negative</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>creepy</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>dangerous</t>
+    <t>addicted</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -106,16 +106,13 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
     <t>important</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
   </si>
   <si>
     <t>social</t>
@@ -490,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -598,13 +595,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -616,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>26</v>
@@ -648,13 +645,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9615384615384616</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -666,19 +663,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -690,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -698,13 +695,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9545454545454546</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -716,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>28</v>
@@ -751,10 +748,10 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -766,19 +763,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K7">
-        <v>0.631578947368421</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -790,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -798,13 +795,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -816,19 +813,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K8">
-        <v>0.6206896551724138</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -840,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -848,13 +845,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -866,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K9">
-        <v>0.5166666666666667</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -890,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -898,13 +895,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7647058823529411</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -916,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K10">
-        <v>0.5066666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -940,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -948,13 +945,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6842105263157895</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -966,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>0.04280510018214936</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -990,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -998,13 +995,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1016,31 +1013,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12">
-        <v>0.03825136612021858</v>
-      </c>
-      <c r="L12">
-        <v>42</v>
-      </c>
-      <c r="M12">
-        <v>42</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1056</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1048,13 +1021,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.575</v>
+        <v>0.5625</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1066,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1074,13 +1047,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4710144927536232</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C14">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1092,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1100,13 +1073,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4285714285714285</v>
+        <v>0.45</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1118,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1126,13 +1099,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.425531914893617</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1144,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1152,13 +1125,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1170,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1178,13 +1151,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3846153846153846</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1196,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1204,13 +1177,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.282051282051282</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1222,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
